--- a/data/trans_orig/P1425-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>2751</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7284</v>
+        <v>7572</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01007597577362894</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003248746051732713</v>
+        <v>0.003252853420793319</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02668188061458326</v>
+        <v>0.02773424217956443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>3125</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8346</v>
+        <v>8391</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01198161304670639</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003679082801241088</v>
+        <v>0.003727465644195968</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03199689503670531</v>
+        <v>0.0321708671959973</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>5876</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2014</v>
+        <v>2781</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11897</v>
+        <v>11842</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01100706994230561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003772657376548394</v>
+        <v>0.005209697044651038</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02228492862957274</v>
+        <v>0.02218204058304516</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>270259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>265726</v>
+        <v>265438</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>272123</v>
+        <v>272122</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.989924024226371</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9733181193854169</v>
+        <v>0.9722657578204355</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9967512539482672</v>
+        <v>0.9967471465792067</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>242</v>
@@ -835,19 +835,19 @@
         <v>257713</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>252492</v>
+        <v>252447</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259878</v>
+        <v>259866</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9880183869532936</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.968003104963294</v>
+        <v>0.9678291328040026</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9963209171987589</v>
+        <v>0.996272534355804</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>510</v>
@@ -856,19 +856,19 @@
         <v>527972</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>521951</v>
+        <v>522006</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>531834</v>
+        <v>531067</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9889929300576944</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9777150713704277</v>
+        <v>0.9778179594169549</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9962273426234516</v>
+        <v>0.994790302955349</v>
       </c>
     </row>
     <row r="6">
@@ -963,16 +963,16 @@
         <v>866</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7809</v>
+        <v>8740</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006051060122260629</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001755496793768593</v>
+        <v>0.001755501474878137</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01583767701544899</v>
+        <v>0.01772496594851613</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -981,19 +981,19 @@
         <v>5288</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1955</v>
+        <v>1970</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11891</v>
+        <v>11811</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01049311282219889</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003878832615876302</v>
+        <v>0.003909840589352202</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02359465097140676</v>
+        <v>0.02343717603751989</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1002,19 +1002,19 @@
         <v>8272</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3552</v>
+        <v>3948</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15478</v>
+        <v>15674</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008296309887277226</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003562398175993935</v>
+        <v>0.003959746494986687</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01552401275389785</v>
+        <v>0.01572107999062345</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>490091</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>485266</v>
+        <v>484335</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>492209</v>
@@ -1040,10 +1040,10 @@
         <v>0.9939489398777394</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9841623229845512</v>
+        <v>0.9822750340514835</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9982445032062315</v>
+        <v>0.9982444985251219</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>494</v>
@@ -1052,19 +1052,19 @@
         <v>498661</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>492058</v>
+        <v>492138</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>501994</v>
+        <v>501979</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9895068871778011</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.976405349028593</v>
+        <v>0.97656282396248</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9961211673841237</v>
+        <v>0.9960901594106478</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>956</v>
@@ -1073,19 +1073,19 @@
         <v>988752</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>981546</v>
+        <v>981350</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>993472</v>
+        <v>993076</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9917036901127227</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9844759872461022</v>
+        <v>0.9842789200093761</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9964376018240045</v>
+        <v>0.9960402535050132</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6827</v>
+        <v>7886</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006704028745898375</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0214107401365557</v>
+        <v>0.02473228479584923</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5132</v>
+        <v>4640</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002760576888233556</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01529953409167619</v>
+        <v>0.01383236402687522</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1219,19 +1219,19 @@
         <v>3063</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8089</v>
+        <v>9206</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004682377872602132</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001412954260986584</v>
+        <v>0.001409908373455763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0123641385424923</v>
+        <v>0.01407015806019101</v>
       </c>
     </row>
     <row r="11">
@@ -1248,7 +1248,7 @@
         <v>316708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312019</v>
+        <v>310960</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318846</v>
@@ -1257,7 +1257,7 @@
         <v>0.9932959712541016</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9785892598634442</v>
+        <v>0.9752677152041507</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>334486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>330280</v>
+        <v>330772</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>335412</v>
@@ -1278,7 +1278,7 @@
         <v>0.9972394231117665</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9847004659083242</v>
+        <v>0.9861676359731247</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1290,19 +1290,19 @@
         <v>651195</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>646169</v>
+        <v>645052</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653334</v>
+        <v>653336</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9953176221273978</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9876358614575077</v>
+        <v>0.985929841939809</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9985870457390134</v>
+        <v>0.9985900916265443</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>6213</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2611</v>
+        <v>2565</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13410</v>
+        <v>12939</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01732283616705436</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007279825394054206</v>
+        <v>0.007151727122910961</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03738826381551102</v>
+        <v>0.03607508745445148</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1415,19 +1415,19 @@
         <v>5602</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11427</v>
+        <v>12237</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01508212945304089</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007184729896428544</v>
+        <v>0.007188843781591576</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03076226174408153</v>
+        <v>0.03294290066426837</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1436,19 +1436,19 @@
         <v>11816</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6473</v>
+        <v>6118</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20685</v>
+        <v>19957</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01618286491959013</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008866105370591654</v>
+        <v>0.008379942088500134</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02833073158517381</v>
+        <v>0.02733404883185364</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>352458</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>345261</v>
+        <v>345732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>356060</v>
+        <v>356106</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9826771638329457</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.962611736184489</v>
+        <v>0.9639249125455485</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9927201746059459</v>
+        <v>0.992848272877089</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>378</v>
@@ -1486,19 +1486,19 @@
         <v>365854</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>360029</v>
+        <v>359219</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>368787</v>
+        <v>368786</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9849178705469591</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9692377382559184</v>
+        <v>0.9670570993357321</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9928152701035714</v>
+        <v>0.9928111562184087</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>734</v>
@@ -1507,19 +1507,19 @@
         <v>718311</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>709442</v>
+        <v>710170</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>723654</v>
+        <v>724009</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9838171350804099</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9716692684148256</v>
+        <v>0.9726659511681464</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9911338946294083</v>
+        <v>0.9916200579114999</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>4541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1759</v>
+        <v>1776</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9402</v>
+        <v>10221</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02233459827062253</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008651741848825041</v>
+        <v>0.008736132871918873</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04624378716968688</v>
+        <v>0.05027515676089267</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1632,19 +1632,19 @@
         <v>3667</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10402</v>
+        <v>9735</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01765987288969567</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005473344350735948</v>
+        <v>0.005431970928754133</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05009154865968589</v>
+        <v>0.04687941480343764</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1653,19 +1653,19 @@
         <v>8208</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3887</v>
+        <v>3869</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16148</v>
+        <v>15717</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01997243901618392</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009458854166551567</v>
+        <v>0.009415052319606442</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03929150078730795</v>
+        <v>0.038243422021074</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>198767</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193906</v>
+        <v>193087</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201549</v>
+        <v>201532</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9776654017293774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9537562128303133</v>
+        <v>0.9497248432391074</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.991348258151175</v>
+        <v>0.9912638671280811</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>195</v>
@@ -1703,19 +1703,19 @@
         <v>204001</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>197266</v>
+        <v>197933</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206531</v>
+        <v>206540</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9823401271103044</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9499084513403133</v>
+        <v>0.953120585196562</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.994526655649264</v>
+        <v>0.9945680290712459</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>396</v>
@@ -1724,19 +1724,19 @@
         <v>402768</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>394828</v>
+        <v>395259</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>407089</v>
+        <v>407107</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.980027560983816</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9607084992126921</v>
+        <v>0.9617565779789257</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9905411458334484</v>
+        <v>0.9905849476803935</v>
       </c>
     </row>
     <row r="18">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4615</v>
+        <v>5727</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003799697516686531</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01704246816899063</v>
+        <v>0.02114718991644442</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7109</v>
+        <v>5503</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004268124946288753</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02555928633378075</v>
+        <v>0.01978329541530995</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7330</v>
+        <v>7912</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004037039881781118</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0133522878363053</v>
+        <v>0.01441266097366131</v>
       </c>
     </row>
     <row r="20">
@@ -1899,7 +1899,7 @@
         <v>269782</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>266196</v>
+        <v>265084</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270811</v>
@@ -1908,7 +1908,7 @@
         <v>0.9962003024833135</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.982957531831008</v>
+        <v>0.9788528100835541</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1920,7 +1920,7 @@
         <v>276957</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>271035</v>
+        <v>272641</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>278144</v>
@@ -1929,7 +1929,7 @@
         <v>0.9957318750537113</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9744407136662191</v>
+        <v>0.9802167045846888</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1941,7 +1941,7 @@
         <v>546739</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>541625</v>
+        <v>541043</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>548955</v>
@@ -1950,7 +1950,7 @@
         <v>0.9959629601182188</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9866477121636958</v>
+        <v>0.985587339026339</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -2045,19 +2045,19 @@
         <v>6508</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2865</v>
+        <v>2727</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12904</v>
+        <v>12590</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01058143063190814</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004658637944389111</v>
+        <v>0.004433663915452279</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02098060148060395</v>
+        <v>0.0204710086023759</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2066,19 +2066,19 @@
         <v>3873</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1190</v>
+        <v>931</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9433</v>
+        <v>9514</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006067779409634582</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001865016322418215</v>
+        <v>0.001459208511404328</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01477952369806183</v>
+        <v>0.01490650700023866</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2087,19 +2087,19 @@
         <v>10380</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5524</v>
+        <v>5363</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19367</v>
+        <v>18123</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008282841172682527</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004407702614639466</v>
+        <v>0.004279519365661203</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01545366663417151</v>
+        <v>0.01446086056651178</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>608519</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>602123</v>
+        <v>602437</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>612162</v>
+        <v>612300</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9894185693680918</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9790193985193957</v>
+        <v>0.9795289913976241</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9953413620556109</v>
+        <v>0.9955663360845477</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>617</v>
@@ -2137,19 +2137,19 @@
         <v>634346</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>628786</v>
+        <v>628705</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>637029</v>
+        <v>637288</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9939322205903655</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9852204763019388</v>
+        <v>0.9850934929997615</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9981349836775818</v>
+        <v>0.9985407914885956</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1208</v>
@@ -2158,19 +2158,19 @@
         <v>1242866</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1233879</v>
+        <v>1235123</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1247722</v>
+        <v>1247883</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9917171588273175</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9845463333658283</v>
+        <v>0.9855391394334876</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9955922973853605</v>
+        <v>0.9957204806343387</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>14569</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8559</v>
+        <v>8462</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25278</v>
+        <v>24139</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01958785519809091</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01150686903336483</v>
+        <v>0.01137678255488274</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03398529986649542</v>
+        <v>0.03245359368668631</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2283,19 +2283,19 @@
         <v>13179</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6763</v>
+        <v>7270</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21598</v>
+        <v>22191</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01682070557372848</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008631811999636233</v>
+        <v>0.009278884853594285</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02756623187191241</v>
+        <v>0.02832198875723508</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -2304,19 +2304,19 @@
         <v>27749</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17508</v>
+        <v>18020</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39089</v>
+        <v>39544</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0181683020044842</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01146352363822209</v>
+        <v>0.0117988356637631</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02559321467588127</v>
+        <v>0.02589135778913441</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>729226</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>718517</v>
+        <v>719656</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>735236</v>
+        <v>735333</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9804121448019091</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9660147001335047</v>
+        <v>0.9675464063133138</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9884931309666352</v>
+        <v>0.9886232174451175</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>733</v>
@@ -2354,19 +2354,19 @@
         <v>770332</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>761913</v>
+        <v>761320</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>776748</v>
+        <v>776241</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9831792944262715</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9724337681280876</v>
+        <v>0.9716780112427656</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.991368188000364</v>
+        <v>0.9907211151464058</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1455</v>
@@ -2375,19 +2375,19 @@
         <v>1499557</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1488217</v>
+        <v>1487762</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1509798</v>
+        <v>1509286</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9818316979955158</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9744067853241183</v>
+        <v>0.9741086422108653</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9885364763617775</v>
+        <v>0.9882011643362365</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>40732</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29233</v>
+        <v>28670</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53886</v>
+        <v>55242</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01243146754218791</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008921989561051922</v>
+        <v>0.008750156587797455</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01644592479024987</v>
+        <v>0.01685990507417724</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>36</v>
@@ -2500,19 +2500,19 @@
         <v>36848</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>26212</v>
+        <v>26306</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>50600</v>
+        <v>51159</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01090432271120994</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007756772408797242</v>
+        <v>0.007784604966452562</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01497404823056385</v>
+        <v>0.01513946832489492</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>77</v>
@@ -2521,19 +2521,19 @@
         <v>77580</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>61686</v>
+        <v>59672</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>96461</v>
+        <v>96121</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01165611826258588</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009268145434076116</v>
+        <v>0.008965457726594442</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01449284327209341</v>
+        <v>0.01444181458804981</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>3235811</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3222657</v>
+        <v>3221301</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3247310</v>
+        <v>3247873</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9875685324578121</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9835540752097501</v>
+        <v>0.9831400949258225</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9910780104389482</v>
+        <v>0.9912498434122026</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3261</v>
@@ -2571,19 +2571,19 @@
         <v>3342349</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3328597</v>
+        <v>3328038</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3352985</v>
+        <v>3352891</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9890956772887901</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9850259517694362</v>
+        <v>0.9848605316751051</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9922432275912029</v>
+        <v>0.9922153950335474</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6434</v>
@@ -2592,19 +2592,19 @@
         <v>6578161</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6559280</v>
+        <v>6559620</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6594055</v>
+        <v>6596069</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9883438817374142</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9855071567279063</v>
+        <v>0.9855581854119497</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9907318545659238</v>
+        <v>0.9910345422734055</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>2761</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7494</v>
+        <v>7388</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009367787844298514</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003049932561216313</v>
+        <v>0.002995952957403937</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02542690756265551</v>
+        <v>0.02506764133633043</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6492</v>
+        <v>7066</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007425276040517181</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0226001351441959</v>
+        <v>0.02459862147874425</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2982,19 +2982,19 @@
         <v>4894</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1815</v>
+        <v>1853</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10283</v>
+        <v>10761</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008409036860393067</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003118519514291461</v>
+        <v>0.003183489134232146</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01766835517587269</v>
+        <v>0.01849108825859664</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>291977</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287244</v>
+        <v>287350</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293839</v>
+        <v>293855</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9906322121557015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9745730924373445</v>
+        <v>0.9749323586636693</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9969500674387837</v>
+        <v>0.997004047042596</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -3032,7 +3032,7 @@
         <v>285112</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>280753</v>
+        <v>280179</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>287245</v>
@@ -3041,7 +3041,7 @@
         <v>0.9925747239594829</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.977399864855804</v>
+        <v>0.9754013785212543</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3053,19 +3053,19 @@
         <v>577089</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>571700</v>
+        <v>571222</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>580168</v>
+        <v>580130</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9915909631396069</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9823316448241299</v>
+        <v>0.9815089117414032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9968814804857086</v>
+        <v>0.9968165108657678</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>6323</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16769</v>
+        <v>15287</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01250715986932288</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0039888990890651</v>
+        <v>0.00398687746354541</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03317094789136307</v>
+        <v>0.03023908395228472</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5891</v>
+        <v>5569</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002116587292334908</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01124818447246996</v>
+        <v>0.01063305611979368</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -3199,19 +3199,19 @@
         <v>7431</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2143</v>
+        <v>2161</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17482</v>
+        <v>18120</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007219819727217434</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002081894517218513</v>
+        <v>0.002099593745216175</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01698453059429006</v>
+        <v>0.01760405029073507</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>499204</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>488758</v>
+        <v>490240</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>503511</v>
+        <v>503512</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9874928401306772</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9668290521086366</v>
+        <v>0.9697609160477157</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9960111009109348</v>
+        <v>0.9960131225364546</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>479</v>
@@ -3249,7 +3249,7 @@
         <v>522656</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>517874</v>
+        <v>518196</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>523765</v>
@@ -3258,7 +3258,7 @@
         <v>0.9978834127076651</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9887518155275306</v>
+        <v>0.9893669438802063</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3270,19 +3270,19 @@
         <v>1021861</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1011810</v>
+        <v>1011172</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1027149</v>
+        <v>1027131</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9927801802727826</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9830154694057099</v>
+        <v>0.9823959497092649</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9979181054827815</v>
+        <v>0.9979004062547837</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>4824</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1878</v>
+        <v>1853</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10647</v>
+        <v>10728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01488644804827114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005796671310890854</v>
+        <v>0.005716842947188455</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03285731117878893</v>
+        <v>0.03310569886408835</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3395,19 +3395,19 @@
         <v>4253</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9646</v>
+        <v>9802</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01247096477522948</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003191822592652731</v>
+        <v>0.003203728352684058</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02828630601849285</v>
+        <v>0.02874446113926304</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -3416,19 +3416,19 @@
         <v>9077</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4067</v>
+        <v>4128</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16728</v>
+        <v>17091</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01364788207976252</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006114578488785424</v>
+        <v>0.006207356742707961</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02515219919105423</v>
+        <v>0.02569794009464493</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>319222</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313399</v>
+        <v>313318</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>322168</v>
+        <v>322193</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9851135519517289</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9671426888212109</v>
+        <v>0.9668943011359121</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9942033286891091</v>
+        <v>0.9942831570528116</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>313</v>
@@ -3466,19 +3466,19 @@
         <v>336767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>331374</v>
+        <v>331218</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>339932</v>
+        <v>339927</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9875290352247705</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9717136939815071</v>
+        <v>0.9712555388607368</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9968081774073473</v>
+        <v>0.996796271647316</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>627</v>
@@ -3487,19 +3487,19 @@
         <v>655989</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>648338</v>
+        <v>647975</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>660999</v>
+        <v>660938</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9863521179202375</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9748478008089457</v>
+        <v>0.9743020599053556</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9938854215112146</v>
+        <v>0.9937926432572921</v>
       </c>
     </row>
     <row r="12">
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6279</v>
+        <v>5776</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003060376484586233</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01679013690039754</v>
+        <v>0.01544577432294518</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9675</v>
+        <v>9364</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006928431757849545</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02487541673529744</v>
+        <v>0.0240750956724692</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -3633,19 +3633,19 @@
         <v>3839</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10404</v>
+        <v>11569</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005032350081431653</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001355397831595927</v>
+        <v>0.001362576018195944</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01363643652891376</v>
+        <v>0.01516374729197536</v>
       </c>
     </row>
     <row r="14">
@@ -3662,7 +3662,7 @@
         <v>372837</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>367703</v>
+        <v>368206</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373982</v>
@@ -3671,7 +3671,7 @@
         <v>0.9969396235154138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9832098630996027</v>
+        <v>0.9845542256770549</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3683,7 +3683,7 @@
         <v>386256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>379276</v>
+        <v>379587</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>388951</v>
@@ -3692,7 +3692,7 @@
         <v>0.9930715682421505</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9751245832647025</v>
+        <v>0.9759249043275309</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3704,19 +3704,19 @@
         <v>759094</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>752529</v>
+        <v>751364</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>761899</v>
+        <v>761893</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9949676499185683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9863635634710863</v>
+        <v>0.9848362527080249</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9986446021684041</v>
+        <v>0.998637423981804</v>
       </c>
     </row>
     <row r="15">
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5118</v>
+        <v>5454</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005331929653795515</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0240690538050683</v>
+        <v>0.02565227178736018</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4610</v>
+        <v>5719</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002622954000891975</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01066674263978004</v>
+        <v>0.01323117208102074</v>
       </c>
     </row>
     <row r="17">
@@ -3871,7 +3871,7 @@
         <v>211484</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>207500</v>
+        <v>207164</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>212618</v>
@@ -3880,7 +3880,7 @@
         <v>0.9946680703462045</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9759309461949306</v>
+        <v>0.9743477282126404</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>431075</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>427599</v>
+        <v>426490</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>432209</v>
@@ -3914,7 +3914,7 @@
         <v>0.997377045999108</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9893332573602199</v>
+        <v>0.9867688279189792</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -4009,19 +4009,19 @@
         <v>3053</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>948</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8519</v>
+        <v>8409</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01114218895856323</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003459275272414212</v>
+        <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03109210115302588</v>
+        <v>0.03069129571926833</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -4030,19 +4030,19 @@
         <v>3243</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8802</v>
+        <v>8720</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01166198779181274</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003804252235541301</v>
+        <v>0.003813989778317983</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03165056605344562</v>
+        <v>0.03135594004517277</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -4051,19 +4051,19 @@
         <v>6296</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2130</v>
+        <v>2176</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13662</v>
+        <v>13025</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01140402546090855</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003858480704431568</v>
+        <v>0.003941529570424493</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02474606151227147</v>
+        <v>0.0235931073677067</v>
       </c>
     </row>
     <row r="20">
@@ -4080,19 +4080,19 @@
         <v>270928</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265462</v>
+        <v>265572</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>273033</v>
+        <v>273981</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9888578110414368</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9689078988469743</v>
+        <v>0.9693087042807322</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9965407247275858</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>265</v>
@@ -4101,19 +4101,19 @@
         <v>274853</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>269294</v>
+        <v>269376</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277038</v>
+        <v>277035</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9883380122081873</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9683494339465537</v>
+        <v>0.9686440599548272</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9961957477644587</v>
+        <v>0.996186010221682</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>523</v>
@@ -4122,19 +4122,19 @@
         <v>545781</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>538415</v>
+        <v>539052</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549947</v>
+        <v>549901</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9885959745390914</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9752539384877287</v>
+        <v>0.9764068926322941</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9961415192955684</v>
+        <v>0.9960584704295755</v>
       </c>
     </row>
     <row r="21">
@@ -4226,19 +4226,19 @@
         <v>5988</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2026</v>
+        <v>2117</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12674</v>
+        <v>13058</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009034313343929188</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003057375940371399</v>
+        <v>0.003193454539018285</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01912237654240691</v>
+        <v>0.01970125280886412</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -4247,19 +4247,19 @@
         <v>4660</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12510</v>
+        <v>11293</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006716664224341471</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001431715653181339</v>
+        <v>0.001436829028713902</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01802903960483773</v>
+        <v>0.01627603054184153</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -4268,19 +4268,19 @@
         <v>10648</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5670</v>
+        <v>4980</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19455</v>
+        <v>18983</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007848953536214377</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004179109090657217</v>
+        <v>0.003671031461757806</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01434046421165463</v>
+        <v>0.01399246750474555</v>
       </c>
     </row>
     <row r="23">
@@ -4297,19 +4297,19 @@
         <v>656800</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>650114</v>
+        <v>649730</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>660762</v>
+        <v>660671</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9909656866560708</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9808776234575936</v>
+        <v>0.9802987471911359</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9969426240596286</v>
+        <v>0.9968065454609817</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>632</v>
@@ -4318,19 +4318,19 @@
         <v>689193</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>681343</v>
+        <v>682560</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>692860</v>
+        <v>692856</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9932833357756585</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.981970960395161</v>
+        <v>0.9837239694581585</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9985682843468187</v>
+        <v>0.9985631709712861</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1244</v>
@@ -4339,19 +4339,19 @@
         <v>1345993</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1337186</v>
+        <v>1337658</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1350971</v>
+        <v>1351661</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9921510464637856</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9856595357883454</v>
+        <v>0.9860075324952544</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9958208909093428</v>
+        <v>0.9963289685382423</v>
       </c>
     </row>
     <row r="24">
@@ -4443,19 +4443,19 @@
         <v>7564</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3067</v>
+        <v>3091</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18452</v>
+        <v>19184</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009708511612900683</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003936172409849709</v>
+        <v>0.003967575763999386</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0236842427305069</v>
+        <v>0.02462327685600358</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4464,19 +4464,19 @@
         <v>3362</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>0</v>
+        <v>1058</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9007</v>
+        <v>9133</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004086592583124001</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0</v>
+        <v>0.001286033905781563</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01094929302870148</v>
+        <v>0.01110251446323062</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -4485,19 +4485,19 @@
         <v>10925</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4484</v>
+        <v>5389</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22880</v>
+        <v>21619</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00682124536992063</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002799740931639867</v>
+        <v>0.003364566353349436</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01428507083664001</v>
+        <v>0.01349796286808702</v>
       </c>
     </row>
     <row r="26">
@@ -4514,19 +4514,19 @@
         <v>771534</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>760646</v>
+        <v>759914</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>776031</v>
+        <v>776007</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9902914883870994</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9763157572694935</v>
+        <v>0.9753767231439966</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9960638275901503</v>
+        <v>0.9960324242360007</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>753</v>
@@ -4535,19 +4535,19 @@
         <v>819216</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>813571</v>
+        <v>813445</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>822578</v>
+        <v>821520</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.995913407416876</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9890507069712984</v>
+        <v>0.9888974855367679</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>1</v>
+        <v>0.9987139660942185</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1465</v>
@@ -4556,19 +4556,19 @@
         <v>1590751</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1578796</v>
+        <v>1580057</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1597192</v>
+        <v>1596287</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9931787546300793</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9857149291633599</v>
+        <v>0.9865020371319129</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9972002590683601</v>
+        <v>0.9966354336466505</v>
       </c>
     </row>
     <row r="27">
@@ -4660,19 +4660,19 @@
         <v>32790</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22809</v>
+        <v>22181</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50039</v>
+        <v>47878</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009568842304984391</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006655974714619301</v>
+        <v>0.006472943814290164</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01460223732426785</v>
+        <v>0.0139718218531556</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -4681,19 +4681,19 @@
         <v>21454</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12918</v>
+        <v>13202</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>32540</v>
+        <v>32673</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006034770640894297</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00363354787169255</v>
+        <v>0.003713512859181389</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009152968988008613</v>
+        <v>0.009190440895766471</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>47</v>
@@ -4702,19 +4702,19 @@
         <v>54245</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>40211</v>
+        <v>40094</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>72237</v>
+        <v>72880</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007769330207994423</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005759405541967779</v>
+        <v>0.005742601492680995</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01034640415813845</v>
+        <v>0.010438410426137</v>
       </c>
     </row>
     <row r="29">
@@ -4731,19 +4731,19 @@
         <v>3393989</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3376740</v>
+        <v>3378901</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3403970</v>
+        <v>3404598</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9904311576950157</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9853977626757321</v>
+        <v>0.9860281781468444</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9933440252853808</v>
+        <v>0.99352705618571</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3277</v>
@@ -4752,19 +4752,19 @@
         <v>3533644</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3522558</v>
+        <v>3522425</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3542180</v>
+        <v>3541896</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9939652293591057</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9908470310119911</v>
+        <v>0.9908095591042335</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9963664521283073</v>
+        <v>0.9962864871408186</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6458</v>
@@ -4773,19 +4773,19 @@
         <v>6927632</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6909640</v>
+        <v>6908997</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6941666</v>
+        <v>6941783</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9922306697920056</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9896535958418614</v>
+        <v>0.9895615895738629</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9942405944580323</v>
+        <v>0.994257398507319</v>
       </c>
     </row>
     <row r="30">
@@ -5121,19 +5121,19 @@
         <v>4815</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1601</v>
+        <v>1640</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10991</v>
+        <v>10676</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01639214105728387</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005451305200333559</v>
+        <v>0.005582424263273458</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03741373281340342</v>
+        <v>0.03634224382030204</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -5142,19 +5142,19 @@
         <v>6914</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2772</v>
+        <v>2077</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15725</v>
+        <v>16904</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02394854055181168</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009603060815391053</v>
+        <v>0.007195156321260263</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05446786362260544</v>
+        <v>0.05855021792472959</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -5163,19 +5163,19 @@
         <v>11729</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5808</v>
+        <v>5558</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22421</v>
+        <v>21340</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02013753167303189</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009971230138005624</v>
+        <v>0.009542168667129609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03849385403190833</v>
+        <v>0.03663781135309013</v>
       </c>
     </row>
     <row r="5">
@@ -5192,19 +5192,19 @@
         <v>288946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>282770</v>
+        <v>283085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292160</v>
+        <v>292121</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9836078589427161</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9625862671865966</v>
+        <v>0.9636577561796978</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9945486947996665</v>
+        <v>0.9944175757367265</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>272</v>
@@ -5213,19 +5213,19 @@
         <v>281789</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272978</v>
+        <v>271799</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285931</v>
+        <v>286626</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9760514594481883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9455321363773953</v>
+        <v>0.9414497820752713</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9903969391846091</v>
+        <v>0.9928048436787398</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>533</v>
@@ -5234,19 +5234,19 @@
         <v>570735</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>560043</v>
+        <v>561124</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>576656</v>
+        <v>576906</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9798624683269681</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9615061459680919</v>
+        <v>0.9633621886469106</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9900287698619946</v>
+        <v>0.9904578313328705</v>
       </c>
     </row>
     <row r="6">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6861</v>
+        <v>6658</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004116904225212304</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01311625902830278</v>
+        <v>0.01272810372595392</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7751</v>
+        <v>7818</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002099612025679993</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.00755665501299366</v>
+        <v>0.007622271192965974</v>
       </c>
     </row>
     <row r="8">
@@ -5414,7 +5414,7 @@
         <v>520931</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>516223</v>
+        <v>516426</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>523084</v>
@@ -5423,7 +5423,7 @@
         <v>0.9958830957747877</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9868837409716971</v>
+        <v>0.987271896274046</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -5435,7 +5435,7 @@
         <v>1023506</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1017908</v>
+        <v>1017841</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1025659</v>
@@ -5444,7 +5444,7 @@
         <v>0.99790038797432</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9924433449870057</v>
+        <v>0.992377728807034</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -5552,19 +5552,19 @@
         <v>3197</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8994</v>
+        <v>8438</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009506769518745156</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002886583376157775</v>
+        <v>0.00285431518327054</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02674330958424933</v>
+        <v>0.02509068160550834</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -5573,19 +5573,19 @@
         <v>3197</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8404</v>
+        <v>9612</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004882179123032005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001479580016539996</v>
+        <v>0.001486922999318633</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01283275769456399</v>
+        <v>0.01467820638721038</v>
       </c>
     </row>
     <row r="11">
@@ -5615,19 +5615,19 @@
         <v>333112</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327315</v>
+        <v>327871</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>335338</v>
+        <v>335349</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9904932304812548</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9732566904157507</v>
+        <v>0.9749093183944917</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9971134166238422</v>
+        <v>0.9971456848167294</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>664</v>
@@ -5636,19 +5636,19 @@
         <v>651677</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>646470</v>
+        <v>645262</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653905</v>
+        <v>653900</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.995117820876968</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9871672423054355</v>
+        <v>0.985321793612789</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.99852041998346</v>
+        <v>0.9985130770006814</v>
       </c>
     </row>
     <row r="12">
@@ -5740,19 +5740,19 @@
         <v>2889</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8662</v>
+        <v>8461</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007809820298489524</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002430693952530557</v>
+        <v>0.002394417402187766</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02341254193364672</v>
+        <v>0.02287061079606354</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5370</v>
+        <v>7077</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002683120157643912</v>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01386459680464344</v>
+        <v>0.01827235849912136</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -5782,19 +5782,19 @@
         <v>3928</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1012</v>
+        <v>1025</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9355</v>
+        <v>9847</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005187843826425781</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001335822079312989</v>
+        <v>0.001353701784910173</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01235434469392761</v>
+        <v>0.01300398050356712</v>
       </c>
     </row>
     <row r="14">
@@ -5811,19 +5811,19 @@
         <v>367075</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>361302</v>
+        <v>361503</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369065</v>
+        <v>369078</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9921901797015105</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9765874580663533</v>
+        <v>0.9771293892039363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9975693060474694</v>
+        <v>0.9976055825978123</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>357</v>
@@ -5832,7 +5832,7 @@
         <v>386244</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>381913</v>
+        <v>380206</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>387283</v>
@@ -5841,7 +5841,7 @@
         <v>0.9973168798423561</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9861354031953555</v>
+        <v>0.9817276415008772</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5853,19 +5853,19 @@
         <v>753319</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>747892</v>
+        <v>747400</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>756235</v>
+        <v>756222</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9948121561735742</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9876456553060724</v>
+        <v>0.9869960194964329</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9986641779206871</v>
+        <v>0.9986462982150898</v>
       </c>
     </row>
     <row r="15">
@@ -5957,19 +5957,19 @@
         <v>5016</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1928</v>
+        <v>1945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10938</v>
+        <v>11101</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0237459712237579</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009126904363626129</v>
+        <v>0.009206932113739024</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0517830620523536</v>
+        <v>0.05255571976559989</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5978,19 +5978,19 @@
         <v>2983</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8113</v>
+        <v>7799</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01364754850524331</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00407495414352039</v>
+        <v>0.004023985475156896</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03711533717806962</v>
+        <v>0.03568095337914477</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -5999,19 +5999,19 @@
         <v>7999</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3783</v>
+        <v>3316</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14843</v>
+        <v>15474</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01861022704097295</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008802302683659511</v>
+        <v>0.007715906607648373</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03453463964535546</v>
+        <v>0.03600169597056523</v>
       </c>
     </row>
     <row r="17">
@@ -6028,19 +6028,19 @@
         <v>206205</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200283</v>
+        <v>200120</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209293</v>
+        <v>209276</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9762540287762421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9482169379476464</v>
+        <v>0.9474442802344001</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9908730956363738</v>
+        <v>0.990793067886261</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>220</v>
@@ -6049,19 +6049,19 @@
         <v>215604</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>210474</v>
+        <v>210788</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217696</v>
+        <v>217707</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9863524514947567</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9628846628219304</v>
+        <v>0.9643190466208554</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9959250458564796</v>
+        <v>0.9959760145248432</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>427</v>
@@ -6070,19 +6070,19 @@
         <v>421809</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>414965</v>
+        <v>414334</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426025</v>
+        <v>426492</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9813897729590271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9654653603546446</v>
+        <v>0.9639983040294344</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9911976973163404</v>
+        <v>0.9922840933923515</v>
       </c>
     </row>
     <row r="18">
@@ -6174,19 +6174,19 @@
         <v>3837</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>989</v>
+        <v>955</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9636</v>
+        <v>8710</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0145809399116003</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003758692574673751</v>
+        <v>0.003631286128580476</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03662076915816118</v>
+        <v>0.03310081950335562</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -6195,19 +6195,19 @@
         <v>3423</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10220</v>
+        <v>8842</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01253201680176651</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003765544821720855</v>
+        <v>0.003768700862619552</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03742123208378174</v>
+        <v>0.03237432626915317</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -6216,19 +6216,19 @@
         <v>7259</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3107</v>
+        <v>3165</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14154</v>
+        <v>14136</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01353738903226172</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005794183677618718</v>
+        <v>0.005903131726709919</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02639413717183487</v>
+        <v>0.02636196874793984</v>
       </c>
     </row>
     <row r="20">
@@ -6245,19 +6245,19 @@
         <v>259286</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253487</v>
+        <v>254413</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262134</v>
+        <v>262168</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9854190600883997</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9633792308418387</v>
+        <v>0.9668991804966443</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9962413074253262</v>
+        <v>0.9963687138714196</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -6266,19 +6266,19 @@
         <v>269692</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262895</v>
+        <v>264273</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272087</v>
+        <v>272086</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9874679831982335</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9625787679162182</v>
+        <v>0.9676256737308468</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9962344551782791</v>
+        <v>0.9962312991373805</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>515</v>
@@ -6287,19 +6287,19 @@
         <v>528979</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>522084</v>
+        <v>522102</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533131</v>
+        <v>533073</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9864626109677382</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9736058628281654</v>
+        <v>0.9736380312520602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9942058163223814</v>
+        <v>0.9940968682732901</v>
       </c>
     </row>
     <row r="21">
@@ -6391,19 +6391,19 @@
         <v>7043</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2998</v>
+        <v>3121</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15898</v>
+        <v>14853</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01072654003086868</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004566921026959958</v>
+        <v>0.004754117216656294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02421356116473581</v>
+        <v>0.02262211091262643</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -6412,19 +6412,19 @@
         <v>7852</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2819</v>
+        <v>2803</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15905</v>
+        <v>15848</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01135811445927974</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004077137436856823</v>
+        <v>0.004055224600909521</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02300713214788127</v>
+        <v>0.02292572063172351</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -6433,19 +6433,19 @@
         <v>14894</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8108</v>
+        <v>8115</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25114</v>
+        <v>25597</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01105046551675827</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006015327258309302</v>
+        <v>0.006020416869976175</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0186322649077765</v>
+        <v>0.01899116476742843</v>
       </c>
     </row>
     <row r="23">
@@ -6462,19 +6462,19 @@
         <v>649515</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>640660</v>
+        <v>641705</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>653560</v>
+        <v>653437</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9892734599691313</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9757864388352643</v>
+        <v>0.9773778890873733</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9954330789730401</v>
+        <v>0.9952458827833437</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>640</v>
@@ -6483,19 +6483,19 @@
         <v>683442</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>675389</v>
+        <v>675446</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>688475</v>
+        <v>688491</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9886418855407203</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9769928678521186</v>
+        <v>0.9770742793682761</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9959228625631432</v>
+        <v>0.9959447753990903</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1214</v>
@@ -6504,19 +6504,19 @@
         <v>1332958</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1322738</v>
+        <v>1322255</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1339744</v>
+        <v>1339737</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9889495344832417</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9813677350922233</v>
+        <v>0.9810088352325704</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9939846727416907</v>
+        <v>0.9939795831300238</v>
       </c>
     </row>
     <row r="24">
@@ -6608,19 +6608,19 @@
         <v>7932</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3189</v>
+        <v>3878</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14670</v>
+        <v>15541</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01018738833272519</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00409528346384155</v>
+        <v>0.004980559117876971</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01884172038182919</v>
+        <v>0.01996094683331329</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -6629,19 +6629,19 @@
         <v>6194</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2123</v>
+        <v>2089</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12479</v>
+        <v>13177</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007497634779198911</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002569433921165517</v>
+        <v>0.002529104173010764</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01510421934526057</v>
+        <v>0.01594915588140737</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -6650,19 +6650,19 @@
         <v>14126</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8124</v>
+        <v>7701</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23782</v>
+        <v>22156</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008802633304778327</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005062441073948009</v>
+        <v>0.004799114699383582</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01481983753270818</v>
+        <v>0.0138066108786513</v>
       </c>
     </row>
     <row r="26">
@@ -6679,19 +6679,19 @@
         <v>770651</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>763913</v>
+        <v>763042</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>775394</v>
+        <v>774705</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9898126116672749</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9811582796181713</v>
+        <v>0.9800390531666875</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9959047165361585</v>
+        <v>0.9950194408821231</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>749</v>
@@ -6700,19 +6700,19 @@
         <v>819973</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>813688</v>
+        <v>812990</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>824044</v>
+        <v>824078</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.992502365220801</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9848957806547392</v>
+        <v>0.9840508441185924</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9974305660788344</v>
+        <v>0.9974708958269892</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1491</v>
@@ -6721,19 +6721,19 @@
         <v>1590624</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1580968</v>
+        <v>1582594</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1596626</v>
+        <v>1597049</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9911973666952216</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9851801624672921</v>
+        <v>0.9861933891213486</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.994937558926052</v>
+        <v>0.9952008853006161</v>
       </c>
     </row>
     <row r="27">
@@ -6825,19 +6825,19 @@
         <v>31531</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21555</v>
+        <v>21077</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45006</v>
+        <v>44309</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009289340281430946</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006350137198595015</v>
+        <v>0.006209452053614274</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01325903198188836</v>
+        <v>0.01305362416626726</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -6846,19 +6846,19 @@
         <v>33756</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>23434</v>
+        <v>22597</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>48821</v>
+        <v>49363</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009523316246335518</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006611426718393933</v>
+        <v>0.006375166033077717</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01377368521911206</v>
+        <v>0.0139265398664267</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>60</v>
@@ -6867,19 +6867,19 @@
         <v>65287</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>50089</v>
+        <v>50049</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>83521</v>
+        <v>84235</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009408860457486089</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007218547751944037</v>
+        <v>0.007212814790652658</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0120366327280391</v>
+        <v>0.01213958881893639</v>
       </c>
     </row>
     <row r="29">
@@ -6896,19 +6896,19 @@
         <v>3362819</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3349344</v>
+        <v>3350041</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3372795</v>
+        <v>3373273</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9907106597185691</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9867409680181118</v>
+        <v>0.9869463758337327</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9936498628014051</v>
+        <v>0.9937905479463854</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3309</v>
@@ -6917,19 +6917,19 @@
         <v>3510786</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3495721</v>
+        <v>3495179</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3521108</v>
+        <v>3521945</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9904766837536645</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.986226314780888</v>
+        <v>0.9860734601335731</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.993388573281606</v>
+        <v>0.9936248339669222</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6509</v>
@@ -6938,19 +6938,19 @@
         <v>6873605</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6855371</v>
+        <v>6854657</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6888803</v>
+        <v>6888843</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9905911395425139</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9879633672719609</v>
+        <v>0.9878604111810637</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9927814522480556</v>
+        <v>0.9927871852093474</v>
       </c>
     </row>
     <row r="30">
